--- a/php/vista/TEMP/.xlsx
+++ b/php/vista/TEMP/.xlsx
@@ -15,9 +15,517 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
-  <si>
-    <t>TD</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="140">
+  <si>
+    <r>
+      <t xml:space="preserve">Clinica Santa Barbara </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="11"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">CENTRO MEDICO MATERNAL PAEZ ALMEIDA NARANJO SOCIEDAD COLECTIVA CIVIL</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="8"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Hora: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="8"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">21:14
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="8"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Fecha: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="8"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">16-06-2021
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="true"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="8"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">Usuario: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <b val="false"/>
+        <i val="false"/>
+        <strike val="false"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="8"/>
+        <u val="none"/>
+      </rPr>
+      <t xml:space="preserve">BERMEO TORRES KAREN LETICIA</t>
+    </r>
+  </si>
+  <si>
+    <t>NOMBRE: MEDINA ZAMBRANO ANDREA</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO: COLELAP</t>
+  </si>
+  <si>
+    <t>AREA: PACIENTES HOSPITALIZACION</t>
+  </si>
+  <si>
+    <t>NO. DESCARGO:16</t>
+  </si>
+  <si>
+    <t>Fecha de descargo: 2021-06-16_16</t>
+  </si>
+  <si>
+    <t>CODIGO</t>
+  </si>
+  <si>
+    <t>CANTIDAD</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>PRECIO UNI</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>01.IN.01.037</t>
+  </si>
+  <si>
+    <t>CUBRE ZAPATOS DESCARTABLES</t>
+  </si>
+  <si>
+    <t>01.IN.01.059</t>
+  </si>
+  <si>
+    <t>GORROS DESCARTABLE ENFERMERA</t>
+  </si>
+  <si>
+    <t>01.IN.01.089</t>
+  </si>
+  <si>
+    <t>MANILLA DE IDENTIFICACION ADULTO</t>
+  </si>
+  <si>
+    <t>01.IN.01.078</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 10 ML</t>
+  </si>
+  <si>
+    <t>01.IN.01.077</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 5 ML</t>
+  </si>
+  <si>
+    <t>01.IN.01.047</t>
+  </si>
+  <si>
+    <t>EQUIPO DE VENOCLICIS</t>
+  </si>
+  <si>
+    <t>01.IN.01.082</t>
+  </si>
+  <si>
+    <t>01.IN.01.021</t>
+  </si>
+  <si>
+    <t>CATLON No. 18</t>
+  </si>
+  <si>
+    <t>01.ME.01.007</t>
+  </si>
+  <si>
+    <t>AMPICILINA + SULBACTAM 1.5 G (UNASYN)</t>
+  </si>
+  <si>
+    <t>01.ME.01.172</t>
+  </si>
+  <si>
+    <t>BUSCAPINA SIMP. 1ML I.M./I.V.</t>
+  </si>
+  <si>
+    <t>01.ME.01.047</t>
+  </si>
+  <si>
+    <t>LACTATO DE RINGER 1000 ML</t>
+  </si>
+  <si>
+    <t>NOMBRE: MUZO REMACHE FABIOLA</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO: CESAREA</t>
+  </si>
+  <si>
+    <t>NO. DESCARGO:5</t>
+  </si>
+  <si>
+    <t>Fecha de descargo: 2021-06-15_5</t>
+  </si>
+  <si>
+    <t>01.ME.01.067</t>
+  </si>
+  <si>
+    <t>SOLUCION SALINA 0.9% 1000 ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.068</t>
+  </si>
+  <si>
+    <t>SOLUCION SALINA 0.9% 500 ML</t>
+  </si>
+  <si>
+    <t>01.IN.03.025</t>
+  </si>
+  <si>
+    <t>VICRYL 1 CT-1 70 CM. C. GRAL.</t>
+  </si>
+  <si>
+    <t>01.IN.01.130</t>
+  </si>
+  <si>
+    <t>SONDA DE SUCCION No. 16</t>
+  </si>
+  <si>
+    <t>01.IN.01.115</t>
+  </si>
+  <si>
+    <t>PLACA DE ELECTRO</t>
+  </si>
+  <si>
+    <t>01.IN.01.088</t>
+  </si>
+  <si>
+    <t>MANGUERA DE SUCCION</t>
+  </si>
+  <si>
+    <t>01.IN.01.087</t>
+  </si>
+  <si>
+    <t>MANGUERA DE IRRIGACION</t>
+  </si>
+  <si>
+    <t>01.IN.01.076</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 3 ML</t>
+  </si>
+  <si>
+    <t>01.IN.01.079</t>
+  </si>
+  <si>
+    <t>JERINGUILLAS DESC 20ML</t>
+  </si>
+  <si>
+    <t>01.IN.01.066</t>
+  </si>
+  <si>
+    <t>HOJAS BISTURI No. 11</t>
+  </si>
+  <si>
+    <t>01.IN.01.063</t>
+  </si>
+  <si>
+    <t>GUANTES QUIR. No. 7.5</t>
+  </si>
+  <si>
+    <t>01.IN.01.062</t>
+  </si>
+  <si>
+    <t>GUANTES QUIR. No. 7</t>
+  </si>
+  <si>
+    <t>01.IN.01.061</t>
+  </si>
+  <si>
+    <t>GUANTES QUIR. No. 6.5</t>
+  </si>
+  <si>
+    <t>01.IN.03.013</t>
+  </si>
+  <si>
+    <t>ETHILON 3-0 SC-20 AGUJA CURVA</t>
+  </si>
+  <si>
+    <t>01.IN.01.036</t>
+  </si>
+  <si>
+    <t>COMPRESAS QUIR 45.7X45.7cm X-RAY PAQ X 5</t>
+  </si>
+  <si>
+    <t>01.IN.01.034</t>
+  </si>
+  <si>
+    <t>CLIP DE TITANEO LT-300</t>
+  </si>
+  <si>
+    <t>01.IN.01.160</t>
+  </si>
+  <si>
+    <t>TUBO ENDOTRAQUEAL No. 7.0 C/B</t>
+  </si>
+  <si>
+    <t>01.ME.01.073</t>
+  </si>
+  <si>
+    <t>TRAMAL 100 MG. 2 ML.</t>
+  </si>
+  <si>
+    <t>01.ME.01.058</t>
+  </si>
+  <si>
+    <t>PROPOFOL 10 ML.</t>
+  </si>
+  <si>
+    <t>01.ME.01.053</t>
+  </si>
+  <si>
+    <t>NEOSTIGMINE 0.5 MG / 1ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.002</t>
+  </si>
+  <si>
+    <t>METAMIZOL 1GR /2ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.046</t>
+  </si>
+  <si>
+    <t>KETOROLACO DE 30 MG INY</t>
+  </si>
+  <si>
+    <t>01.ME.01.011</t>
+  </si>
+  <si>
+    <t>BROMURO DE ROCURONIO 50 MG ESMERON</t>
+  </si>
+  <si>
+    <t>01.IN.01.041</t>
+  </si>
+  <si>
+    <t>ELECTRODOS ADULTO</t>
+  </si>
+  <si>
+    <t>01.ME.01.030</t>
+  </si>
+  <si>
+    <t>EFEDRINA AL 6% 1 ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.122</t>
+  </si>
+  <si>
+    <t>DEXAMETASONA 4MG / 1ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.008</t>
+  </si>
+  <si>
+    <t>ATROPINA 1 ML.</t>
+  </si>
+  <si>
+    <t>01.IN.01.104</t>
+  </si>
+  <si>
+    <t>MICROGOTEROS</t>
+  </si>
+  <si>
+    <t>01.IN.01.135</t>
+  </si>
+  <si>
+    <t>SONDA NELATON No. 12</t>
+  </si>
+  <si>
+    <t>01.ME.01.128</t>
+  </si>
+  <si>
+    <t>PARACETAMOL 1G AMPOLLAS</t>
+  </si>
+  <si>
+    <t>01.ME.01.055</t>
+  </si>
+  <si>
+    <t>OMEPRAZOL 40 MG I.V</t>
+  </si>
+  <si>
+    <t>01.ME.01.066</t>
+  </si>
+  <si>
+    <t>SOLUCION SALINA 0.9% 100 ML</t>
+  </si>
+  <si>
+    <t>NOMBRE: SIN BENEFICIARIOS</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO: GASTOS DEL DEPARTAMENTO</t>
+  </si>
+  <si>
+    <t>AREA: ESTERILIZACION QUIROFANO</t>
+  </si>
+  <si>
+    <t>NO. DESCARGO:776</t>
+  </si>
+  <si>
+    <t>Fecha de descargo: 2021-06-10_776</t>
+  </si>
+  <si>
+    <t>01.IN.01.375</t>
+  </si>
+  <si>
+    <t>KIT DE TROCAR DE 10MM PARA CIRUGIA LAPAROSCOPICA</t>
+  </si>
+  <si>
+    <t>01.IN.01.374</t>
+  </si>
+  <si>
+    <t>KIT DE TROCAR DE 5MM PARA CIRUGIA LAPAROSCOPICA</t>
+  </si>
+  <si>
+    <t>NOMBRE: JAMI ALPUSIG MERCEDES</t>
+  </si>
+  <si>
+    <t>NO. DESCARGO:803</t>
+  </si>
+  <si>
+    <t>Fecha de descargo: 2021-06-11_803</t>
+  </si>
+  <si>
+    <t>01.ME.02.005</t>
+  </si>
+  <si>
+    <t>CLINDAMICINA 300 MG TAB.</t>
+  </si>
+  <si>
+    <t>NOMBRE: GUAMANI ISAAC</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO: APENDICECTOMIA</t>
+  </si>
+  <si>
+    <t>NO. DESCARGO:833</t>
+  </si>
+  <si>
+    <t>Fecha de descargo: 2021-06-05_833</t>
+  </si>
+  <si>
+    <t>01.IN.01.031</t>
+  </si>
+  <si>
+    <t>CIRCUITO DE ANESTESIA PEDIATRICO</t>
+  </si>
+  <si>
+    <t>NOMBRE: TIPANTASIG IKER ISAAC</t>
+  </si>
+  <si>
+    <t>NO. DESCARGO:844</t>
+  </si>
+  <si>
+    <t>Fecha de descargo: 2021-06-06_844</t>
+  </si>
+  <si>
+    <t>01.IN.01.260</t>
+  </si>
+  <si>
+    <t>SONDA NELATON No. 8</t>
+  </si>
+  <si>
+    <t>NOMBRE: MERINO CASTILLO CAMILA</t>
+  </si>
+  <si>
+    <t>PROCEDIMIENTO: PERITONITIS</t>
+  </si>
+  <si>
+    <t>AREA: PACIENTES UCI ADULTO</t>
+  </si>
+  <si>
+    <t>NO. DESCARGO:872</t>
+  </si>
+  <si>
+    <t>Fecha de descargo: 2021-06-13_872</t>
+  </si>
+  <si>
+    <t>01.ME.01.032</t>
+  </si>
+  <si>
+    <t>ETRON (METRONIDAZOL)IV 500 MG 100ML</t>
+  </si>
+  <si>
+    <t>01.ME.01.119</t>
+  </si>
+  <si>
+    <t>CEFTRIAXONA FCO 1GR IM/LV</t>
+  </si>
+  <si>
+    <t>Fecha de descargo: 2021-06-12_872</t>
+  </si>
+  <si>
+    <t>01.IN.01.022</t>
+  </si>
+  <si>
+    <t>CATLON No. 20</t>
+  </si>
+  <si>
+    <t>Fecha de descargo: 2021-06-08_872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRAN TOTAL </t>
   </si>
 </sst>
 </file>
@@ -25,7 +533,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -35,8 +543,35 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="single"/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Candara"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -46,16 +581,50 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <gradientFill type="linear" degree="90">
+        <stop position="0">
+          <color rgb="0086c7"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0086c7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection locked="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -64,6 +633,71 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="676275" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Logo" descr="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342900" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Logo1" descr="Logo1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,21 +990,1758 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:AZ117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="52" max="52" width="9.10" bestFit="true" style="0"/>
+    <col min="5" max="5" width="25" customWidth="true" style="0"/>
+    <col min="1" max="1" width="30" customWidth="true" style="0"/>
+    <col min="2" max="2" width="10" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25" customWidth="true" style="0"/>
+    <col min="3" max="3" width="50" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="1" spans="1:52" customHeight="1" ht="50">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Clinica Santa Barbara </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFFFF"/>
+              <sz val="11"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">CENTRO MEDICO MATERNAL PAEZ ALMEIDA NARANJO SOCIEDAD COLECTIVA CIVIL</t>
+          </r>
+        </is>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFFFF"/>
+              <sz val="8"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Hora: </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFFFF"/>
+              <sz val="8"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">21:14
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFFFF"/>
+              <sz val="8"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Fecha: </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFFFF"/>
+              <sz val="8"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">16-06-2021
+</t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="true"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFFFF"/>
+              <sz val="8"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">Usuario: </t>
+          </r>
+          <r>
+            <rPr>
+              <rFont val="Calibri"/>
+              <b val="false"/>
+              <i val="false"/>
+              <strike val="false"/>
+              <color rgb="FFFFFFFF"/>
+              <sz val="8"/>
+              <u val="none"/>
+            </rPr>
+            <t xml:space="preserve">BERMEO TORRES KAREN LETICIA</t>
+          </r>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:52">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:52">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:52">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>0.44</v>
+      </c>
+      <c r="E6">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>0.06</v>
+      </c>
+      <c r="E7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>0.14</v>
+      </c>
+      <c r="E8">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>0.08</v>
+      </c>
+      <c r="E10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>0.66</v>
+      </c>
+      <c r="E11">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="b">
         <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.37</v>
+      </c>
+      <c r="E12">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>0.66</v>
+      </c>
+      <c r="E13">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14">
+        <v>1.7</v>
+      </c>
+      <c r="E14">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15">
+        <v>1.36</v>
+      </c>
+      <c r="E15">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>1.31</v>
+      </c>
+      <c r="E16">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>6.88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>1.34</v>
+      </c>
+      <c r="E22">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23">
+        <v>1.13</v>
+      </c>
+      <c r="E23">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24">
+        <v>1.52</v>
+      </c>
+      <c r="E24">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25">
+        <v>0.49</v>
+      </c>
+      <c r="E25">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>4.49</v>
+      </c>
+      <c r="E26">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27">
+        <v>2.25</v>
+      </c>
+      <c r="E27">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28">
+        <v>6.48</v>
+      </c>
+      <c r="E28">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29">
+        <v>0.07</v>
+      </c>
+      <c r="E29">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="30" spans="1:52">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>0.08</v>
+      </c>
+      <c r="E30">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32">
+        <v>0.16</v>
+      </c>
+      <c r="E32">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:52">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33">
+        <v>0.13</v>
+      </c>
+      <c r="E33">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:52">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34">
+        <v>0.38</v>
+      </c>
+      <c r="E34">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:52">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35">
+        <v>0.38</v>
+      </c>
+      <c r="E35">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:52">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36">
+        <v>0.38</v>
+      </c>
+      <c r="E36">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D37">
+        <v>1.35</v>
+      </c>
+      <c r="E37">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:52">
+      <c r="A38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <v>3.15</v>
+      </c>
+      <c r="E38">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39">
+        <v>10.56</v>
+      </c>
+      <c r="E39">
+        <v>21.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40">
+        <v>1.83</v>
+      </c>
+      <c r="E40">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
+      </c>
+      <c r="D41">
+        <v>0.26</v>
+      </c>
+      <c r="E41">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="A42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D42">
+        <v>5.74</v>
+      </c>
+      <c r="E42">
+        <v>5.74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="A43" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>0.38</v>
+      </c>
+      <c r="E43">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="A44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44">
+        <v>0.33</v>
+      </c>
+      <c r="E44">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45">
+        <v>0.4</v>
+      </c>
+      <c r="E45">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:52">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46">
+        <v>7.47</v>
+      </c>
+      <c r="E46">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:52">
+      <c r="A47" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47">
+        <v>0.16</v>
+      </c>
+      <c r="E47">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:52">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48">
+        <v>0.4</v>
+      </c>
+      <c r="E48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:52">
+      <c r="A49" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49">
+        <v>0.28</v>
+      </c>
+      <c r="E49">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:52">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50">
+        <v>0.31</v>
+      </c>
+      <c r="E50">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:52">
+      <c r="A51" t="s">
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51">
+        <v>0.66</v>
+      </c>
+      <c r="E51">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:52">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52">
+        <v>1.7</v>
+      </c>
+      <c r="E52">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:52">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D53">
+        <v>0.66</v>
+      </c>
+      <c r="E53">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="b">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0.37</v>
+      </c>
+      <c r="E54">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:52">
+      <c r="A55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55">
+        <v>0.4</v>
+      </c>
+      <c r="E55">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:52">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56">
+        <v>0.1</v>
+      </c>
+      <c r="E56">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52">
+      <c r="A57" t="s">
+        <v>20</v>
+      </c>
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <v>0.08</v>
+      </c>
+      <c r="E57">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:52">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>1.36</v>
+      </c>
+      <c r="E58">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:52">
+      <c r="A59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59">
+        <v>3.5</v>
+      </c>
+      <c r="E59">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60">
+        <v>1.25</v>
+      </c>
+      <c r="E60">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:52">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>28</v>
+      </c>
+      <c r="D61">
+        <v>1.7</v>
+      </c>
+      <c r="E61">
+        <v>10.17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:52">
+      <c r="A62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62">
+        <v>0.33</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52">
+      <c r="A63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>40</v>
+      </c>
+      <c r="D63">
+        <v>1.13</v>
+      </c>
+      <c r="E63">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:52">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64" t="s">
+        <v>100</v>
+      </c>
+      <c r="D64">
+        <v>0.92</v>
+      </c>
+      <c r="E64">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:52">
+      <c r="A65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65">
+        <v>3</v>
+      </c>
+      <c r="C65" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65">
+        <v>1.31</v>
+      </c>
+      <c r="E65">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:52">
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66">
+        <v>109.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:52">
+      <c r="A68" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:52">
+      <c r="A69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:52">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:52">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+      <c r="D71">
+        <v>115.71</v>
+      </c>
+      <c r="E71">
+        <v>231.43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:52">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>109</v>
+      </c>
+      <c r="D72">
+        <v>96.26</v>
+      </c>
+      <c r="E72">
+        <v>192.52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:52">
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73">
+        <v>423.95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:52">
+      <c r="A75" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:52">
+      <c r="A76" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:52">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:52">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78">
+        <v>0.25</v>
+      </c>
+      <c r="E78">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="79" spans="1:52">
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="81" spans="1:52">
+      <c r="A81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="82" spans="1:52">
+      <c r="A82" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:52">
+      <c r="A83" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:52">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84">
+        <v>6.63</v>
+      </c>
+      <c r="E84">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:52">
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="87" spans="1:52">
+      <c r="A87" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:52">
+      <c r="A88" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:52">
+      <c r="A89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:52">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>125</v>
+      </c>
+      <c r="D90">
+        <v>0.01</v>
+      </c>
+      <c r="E90">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="91" spans="1:52">
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="93" spans="1:52">
+      <c r="A93" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:52">
+      <c r="A94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:52">
+      <c r="A95" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:52">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96">
+        <v>0.1</v>
+      </c>
+      <c r="E96">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:52">
+      <c r="A97" t="s">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <v>3.5</v>
+      </c>
+      <c r="E97">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:52">
+      <c r="A98" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>132</v>
+      </c>
+      <c r="D98">
+        <v>1.5</v>
+      </c>
+      <c r="E98">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:52">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99">
+        <v>4</v>
+      </c>
+      <c r="C99" t="s">
+        <v>134</v>
+      </c>
+      <c r="D99">
+        <v>1.08</v>
+      </c>
+      <c r="E99">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="100" spans="1:52">
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100">
+        <v>19.51</v>
+      </c>
+    </row>
+    <row r="102" spans="1:52">
+      <c r="A102" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:52">
+      <c r="A103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:52">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="b">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0.37</v>
+      </c>
+      <c r="E104">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:52">
+      <c r="A105" t="s">
+        <v>136</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>137</v>
+      </c>
+      <c r="D105">
+        <v>0.66</v>
+      </c>
+      <c r="E105">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:52">
+      <c r="A106" t="s">
+        <v>18</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106">
+        <v>0.1</v>
+      </c>
+      <c r="E106">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:52">
+      <c r="A107" t="s">
+        <v>133</v>
+      </c>
+      <c r="B107">
+        <v>4</v>
+      </c>
+      <c r="C107" t="s">
+        <v>134</v>
+      </c>
+      <c r="D107">
+        <v>1.08</v>
+      </c>
+      <c r="E107">
+        <v>4.31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:52">
+      <c r="A108" t="s">
+        <v>131</v>
+      </c>
+      <c r="B108">
+        <v>3</v>
+      </c>
+      <c r="C108" t="s">
+        <v>132</v>
+      </c>
+      <c r="D108">
+        <v>1.5</v>
+      </c>
+      <c r="E108">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:52">
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109">
+        <v>10.04</v>
+      </c>
+    </row>
+    <row r="111" spans="1:52">
+      <c r="A111" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:52">
+      <c r="A112" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:52">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>120</v>
+      </c>
+      <c r="D113">
+        <v>6.63</v>
+      </c>
+      <c r="E113">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:52">
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114">
+        <v>6.63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:52">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E117" s="1">
+        <v>584.46</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <mergeCells>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B93:C93"/>
+  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
@@ -382,5 +2753,6 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>